--- a/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/BÁO GIÁ CẠNH TRANH ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG 2025.xlsx
+++ b/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/BÁO GIÁ CẠNH TRANH ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC5C7A-A4F6-4A9A-AF57-C48596E2CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04984C6F-23D0-4A6B-89CF-FC91C9C24F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TN" sheetId="6" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -1261,13 +1261,13 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1357,111 +1357,12 @@
     <xf numFmtId="3" fontId="29" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1471,9 +1372,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1492,9 +1390,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1507,51 +1402,21 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="5" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="5" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1559,76 +1424,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="35" fillId="5" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1656,18 +1464,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="7" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="34" fillId="7" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1680,9 +1479,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1692,9 +1488,6 @@
     <xf numFmtId="3" fontId="34" fillId="2" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1707,15 +1500,9 @@
     <xf numFmtId="3" fontId="35" fillId="0" borderId="17" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1724,24 +1511,15 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="35" fillId="5" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="36" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1753,9 +1531,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1807,20 +1582,285 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="7" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="2" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="2" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="6" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="2" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="7" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="2" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="7" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="5" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="5" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1828,117 +1868,74 @@
     <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="7" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="2" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="2" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="6" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="2" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="7" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="25" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="47" fillId="2" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2459,915 +2456,936 @@
   </sheetPr>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="185" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="186" customWidth="1"/>
-    <col min="3" max="3" width="52.4140625" style="185" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="185" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="187" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="187" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="188" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="102" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="102"/>
+    <col min="1" max="1" width="6.25" style="110" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="111" customWidth="1"/>
+    <col min="3" max="3" width="52.4140625" style="110" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="110" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="112" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="112" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="113" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="57" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="70" customFormat="1" ht="16.5">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="69" t="s">
+    <row r="1" spans="1:12" s="37" customFormat="1" ht="16.5">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-    </row>
-    <row r="2" spans="1:12" s="74" customFormat="1" ht="16.5">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-    </row>
-    <row r="3" spans="1:12" s="74" customFormat="1" ht="16.5">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-    </row>
-    <row r="4" spans="1:12" s="74" customFormat="1" ht="16.5">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-    </row>
-    <row r="5" spans="1:12" s="74" customFormat="1" ht="16.5">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="6" spans="1:12" s="74" customFormat="1" ht="16.5">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-    </row>
-    <row r="7" spans="1:12" s="74" customFormat="1" ht="25">
-      <c r="A7" s="80" t="s">
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+    </row>
+    <row r="2" spans="1:12" s="40" customFormat="1" ht="16.5">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+    </row>
+    <row r="3" spans="1:12" s="40" customFormat="1" ht="16.5">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+    </row>
+    <row r="4" spans="1:12" s="40" customFormat="1" ht="16.5">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+    </row>
+    <row r="5" spans="1:12" s="40" customFormat="1" ht="16.5">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+    </row>
+    <row r="6" spans="1:12" s="40" customFormat="1" ht="16.5">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+    </row>
+    <row r="7" spans="1:12" s="40" customFormat="1" ht="25">
+      <c r="A7" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-    </row>
-    <row r="8" spans="1:12" s="74" customFormat="1" ht="16.5">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-    </row>
-    <row r="9" spans="1:12" s="74" customFormat="1" ht="16.5">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85" t="s">
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" spans="1:12" s="40" customFormat="1" ht="16.5">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" spans="1:12" s="40" customFormat="1" ht="16.5">
+      <c r="A9" s="49"/>
+      <c r="B9" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-    </row>
-    <row r="10" spans="1:12" s="74" customFormat="1">
-      <c r="A10" s="87" t="s">
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:12" s="40" customFormat="1">
+      <c r="A10" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-    </row>
-    <row r="11" spans="1:12" s="74" customFormat="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-    </row>
-    <row r="12" spans="1:12" s="74" customFormat="1" ht="16.5">
-      <c r="A12" s="191"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:12" s="40" customFormat="1">
+      <c r="A11" s="179"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+    </row>
+    <row r="12" spans="1:12" s="40" customFormat="1" ht="16.5">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="16.5">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="95" t="s">
+      <c r="C13" s="185"/>
+      <c r="D13" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="100" t="s">
+      <c r="F13" s="189"/>
+      <c r="G13" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="101"/>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
-      <c r="A14" s="103"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="106" t="s">
+      <c r="A14" s="183"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="106" t="s">
+      <c r="F14" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:12" ht="49.5">
-      <c r="A15" s="109">
+      <c r="A15" s="160">
         <v>1</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="166">
         <v>130000</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="166">
         <v>130000</v>
       </c>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16" spans="1:12" ht="49.5">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="112" t="s">
+      <c r="A16" s="161"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="115"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8" ht="33">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="112" t="s">
+      <c r="A17" s="161"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="115"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8" ht="33">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="112" t="s">
+      <c r="A18" s="161"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8" ht="33">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="112" t="s">
+      <c r="A19" s="161"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="16.5">
-      <c r="A20" s="122"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="112" t="s">
+      <c r="A20" s="162"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="121"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:8" ht="16.5">
-      <c r="A21" s="127">
+      <c r="A21" s="63">
         <v>2</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="130">
+      <c r="E21" s="66">
         <v>80000</v>
       </c>
-      <c r="F21" s="130">
+      <c r="F21" s="66">
         <v>80000</v>
       </c>
-      <c r="G21" s="131"/>
-      <c r="H21" s="121"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:8" ht="49.5">
-      <c r="A22" s="127">
+      <c r="A22" s="63">
         <v>3</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="112" t="s">
+      <c r="B22" s="153"/>
+      <c r="C22" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="132">
+      <c r="E22" s="68">
         <v>140000</v>
       </c>
-      <c r="F22" s="132">
+      <c r="F22" s="68">
         <v>140000</v>
       </c>
-      <c r="G22" s="131"/>
-      <c r="H22" s="121"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8" ht="33">
-      <c r="A23" s="127">
+      <c r="A23" s="63">
         <v>4</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="112" t="s">
+      <c r="B23" s="153"/>
+      <c r="C23" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="112" t="s">
+      <c r="D23" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="133"/>
-      <c r="F23" s="132">
+      <c r="E23" s="69"/>
+      <c r="F23" s="68">
         <v>140000</v>
       </c>
-      <c r="G23" s="131"/>
-      <c r="H23" s="121"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:8" ht="33">
-      <c r="A24" s="127">
+      <c r="A24" s="63">
         <v>5</v>
       </c>
-      <c r="B24" s="117"/>
-      <c r="C24" s="112" t="s">
+      <c r="B24" s="153"/>
+      <c r="C24" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="112" t="s">
+      <c r="D24" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="132">
+      <c r="E24" s="68">
         <v>140000</v>
       </c>
-      <c r="F24" s="132">
+      <c r="F24" s="68">
         <v>140000</v>
       </c>
-      <c r="G24" s="131"/>
-      <c r="H24" s="121"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:8" ht="49.5">
-      <c r="A25" s="127">
+      <c r="A25" s="63">
         <v>6</v>
       </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="112" t="s">
+      <c r="B25" s="153"/>
+      <c r="C25" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="112" t="s">
+      <c r="D25" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="132">
+      <c r="E25" s="68">
         <v>213000</v>
       </c>
-      <c r="F25" s="132">
+      <c r="F25" s="68">
         <v>213000</v>
       </c>
-      <c r="G25" s="131"/>
-      <c r="H25" s="121"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" ht="33">
-      <c r="A26" s="127">
+      <c r="A26" s="63">
         <v>7</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="112" t="s">
+      <c r="B26" s="153"/>
+      <c r="C26" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="134">
+      <c r="D26" s="60"/>
+      <c r="E26" s="70">
         <v>218000</v>
       </c>
-      <c r="F26" s="134">
+      <c r="F26" s="70">
         <v>218000</v>
       </c>
-      <c r="G26" s="131"/>
-      <c r="H26" s="121"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:8" ht="33">
-      <c r="A27" s="127">
+      <c r="A27" s="63">
         <v>8</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="112" t="s">
+      <c r="B27" s="154"/>
+      <c r="C27" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="132">
+      <c r="E27" s="68">
         <v>70000</v>
       </c>
-      <c r="F27" s="132">
+      <c r="F27" s="68">
         <v>70000</v>
       </c>
-      <c r="G27" s="131"/>
-      <c r="H27" s="121"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:8" ht="49.5">
-      <c r="A28" s="127">
+      <c r="A28" s="63">
         <v>9</v>
       </c>
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="134">
+      <c r="E28" s="70">
         <v>50000</v>
       </c>
-      <c r="F28" s="134">
+      <c r="F28" s="70">
         <v>50000</v>
       </c>
-      <c r="G28" s="131"/>
-      <c r="H28" s="121"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" ht="66">
-      <c r="A29" s="127">
+      <c r="A29" s="63">
         <v>10</v>
       </c>
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="134">
+      <c r="E29" s="70">
         <v>65000</v>
       </c>
-      <c r="F29" s="134">
+      <c r="F29" s="70">
         <v>65000</v>
       </c>
-      <c r="G29" s="131"/>
-      <c r="H29" s="121"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" ht="33">
-      <c r="A30" s="127">
+      <c r="A30" s="63">
         <v>11</v>
       </c>
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="112" t="s">
+      <c r="D30" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="132">
+      <c r="E30" s="68">
         <v>145000</v>
       </c>
-      <c r="F30" s="133"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="121"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" ht="33">
-      <c r="A31" s="127">
+      <c r="A31" s="63">
         <v>12</v>
       </c>
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="137" t="s">
+      <c r="C31" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="137" t="s">
+      <c r="D31" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="138">
+      <c r="E31" s="155">
         <v>50000</v>
       </c>
-      <c r="F31" s="138">
+      <c r="F31" s="155">
         <v>50000</v>
       </c>
-      <c r="G31" s="139" t="s">
+      <c r="G31" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="121"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" ht="33">
-      <c r="A32" s="127">
+      <c r="A32" s="63">
         <v>13</v>
       </c>
-      <c r="B32" s="136"/>
-      <c r="C32" s="137" t="s">
+      <c r="B32" s="149"/>
+      <c r="C32" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="137" t="s">
+      <c r="D32" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="121"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" ht="33">
-      <c r="A33" s="127">
+      <c r="A33" s="63">
         <v>14</v>
       </c>
-      <c r="B33" s="135" t="s">
+      <c r="B33" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="141" t="s">
+      <c r="D33" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="132">
+      <c r="E33" s="68">
         <v>37000</v>
       </c>
-      <c r="F33" s="132">
+      <c r="F33" s="68">
         <v>37000</v>
       </c>
-      <c r="G33" s="131"/>
-      <c r="H33" s="121"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="127">
+      <c r="A34" s="63">
         <v>16</v>
       </c>
-      <c r="B34" s="135" t="s">
+      <c r="B34" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="137" t="s">
+      <c r="C34" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="137" t="s">
+      <c r="D34" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="142">
+      <c r="E34" s="75">
         <v>40000</v>
       </c>
-      <c r="F34" s="142">
+      <c r="F34" s="75">
         <v>40000</v>
       </c>
-      <c r="G34" s="131"/>
-      <c r="H34" s="121"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" ht="33">
-      <c r="A35" s="127">
+      <c r="A35" s="63">
         <v>17</v>
       </c>
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="112" t="s">
+      <c r="C35" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="141" t="s">
+      <c r="D35" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="132">
+      <c r="E35" s="68">
         <v>35000</v>
       </c>
-      <c r="F35" s="142">
+      <c r="F35" s="75">
         <v>35000</v>
       </c>
-      <c r="G35" s="131"/>
-      <c r="H35" s="121"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8" ht="33">
-      <c r="A36" s="127">
+      <c r="A36" s="63">
         <v>18</v>
       </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="137" t="s">
+      <c r="B36" s="158"/>
+      <c r="C36" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="141" t="s">
+      <c r="D36" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="142">
+      <c r="E36" s="75">
         <v>50000</v>
       </c>
-      <c r="F36" s="142">
+      <c r="F36" s="75">
         <v>50000</v>
       </c>
-      <c r="G36" s="144"/>
-      <c r="H36" s="121"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="1:8" ht="33">
-      <c r="A37" s="127">
+      <c r="A37" s="63">
         <v>19</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="145" t="s">
+      <c r="B37" s="158"/>
+      <c r="C37" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="146" t="s">
+      <c r="D37" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="147">
+      <c r="E37" s="79">
         <v>35000</v>
       </c>
-      <c r="F37" s="142">
+      <c r="F37" s="75">
         <v>35000</v>
       </c>
-      <c r="G37" s="140"/>
-      <c r="H37" s="121"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" ht="33">
-      <c r="A38" s="127">
+      <c r="A38" s="63">
         <v>20</v>
       </c>
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="149" t="s">
+      <c r="C38" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="150" t="s">
+      <c r="D38" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="151">
+      <c r="E38" s="82">
         <v>123000</v>
       </c>
-      <c r="F38" s="142">
+      <c r="F38" s="75">
         <v>123000</v>
       </c>
-      <c r="G38" s="152"/>
-      <c r="H38" s="121"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="62"/>
     </row>
     <row r="39" spans="1:8" ht="33">
-      <c r="A39" s="127">
+      <c r="A39" s="63">
         <v>21</v>
       </c>
-      <c r="B39" s="153"/>
-      <c r="C39" s="149" t="s">
+      <c r="B39" s="148"/>
+      <c r="C39" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="154"/>
-      <c r="E39" s="151">
+      <c r="D39" s="84"/>
+      <c r="E39" s="82">
         <v>123000</v>
       </c>
-      <c r="F39" s="142">
+      <c r="F39" s="75">
         <v>123000</v>
       </c>
-      <c r="G39" s="155"/>
-      <c r="H39" s="121"/>
-    </row>
-    <row r="40" spans="1:8" s="159" customFormat="1" ht="33">
-      <c r="A40" s="127">
+      <c r="G39" s="73"/>
+      <c r="H39" s="62"/>
+    </row>
+    <row r="40" spans="1:8" s="88" customFormat="1" ht="33">
+      <c r="A40" s="63">
         <v>22</v>
       </c>
-      <c r="B40" s="156" t="s">
+      <c r="B40" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="145" t="s">
+      <c r="D40" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="151">
+      <c r="E40" s="82">
         <v>200000</v>
       </c>
-      <c r="F40" s="133"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="158"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="87"/>
     </row>
     <row r="41" spans="1:8" ht="16.5">
-      <c r="A41" s="127">
+      <c r="A41" s="63">
         <v>23</v>
       </c>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="145" t="s">
+      <c r="C41" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="112" t="s">
+      <c r="D41" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="133"/>
-      <c r="F41" s="132" t="s">
+      <c r="E41" s="69"/>
+      <c r="F41" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="131"/>
-      <c r="H41" s="121"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="127">
+      <c r="A42" s="63">
         <v>24</v>
       </c>
-      <c r="B42" s="136"/>
-      <c r="C42" s="145" t="s">
+      <c r="B42" s="149"/>
+      <c r="C42" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="112" t="s">
+      <c r="D42" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="133"/>
-      <c r="F42" s="132" t="s">
+      <c r="E42" s="69"/>
+      <c r="F42" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="131"/>
-      <c r="H42" s="121"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="62"/>
     </row>
     <row r="43" spans="1:8" ht="33">
-      <c r="A43" s="127">
+      <c r="A43" s="63">
         <v>25</v>
       </c>
-      <c r="B43" s="136"/>
-      <c r="C43" s="145" t="s">
+      <c r="B43" s="149"/>
+      <c r="C43" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="145" t="s">
+      <c r="D43" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="133"/>
-      <c r="F43" s="147">
+      <c r="E43" s="69"/>
+      <c r="F43" s="79">
         <v>250000</v>
       </c>
-      <c r="G43" s="131"/>
-      <c r="H43" s="121"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" ht="16.5">
-      <c r="A44" s="127">
+      <c r="A44" s="63">
         <v>26</v>
       </c>
-      <c r="B44" s="160"/>
-      <c r="C44" s="161" t="s">
+      <c r="B44" s="76"/>
+      <c r="C44" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="145" t="s">
+      <c r="D44" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="147" t="s">
+      <c r="E44" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="147" t="s">
+      <c r="F44" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="131"/>
-      <c r="H44" s="121"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="62"/>
     </row>
     <row r="45" spans="1:8" ht="16.5">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="162"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="162"/>
-      <c r="E45" s="163">
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="90">
         <f>SUM(E15:E44)</f>
         <v>1944000</v>
       </c>
-      <c r="F45" s="163">
+      <c r="F45" s="90">
         <f>SUM(F15:F44)</f>
         <v>1989000</v>
       </c>
-      <c r="G45" s="164"/>
-      <c r="H45" s="121"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="62"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="E47" s="189" t="s">
+      <c r="E47" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="190"/>
-    </row>
-    <row r="58" spans="1:6" s="168" customFormat="1" ht="16.5">
-      <c r="A58" s="165" t="s">
+      <c r="F47" s="146"/>
+    </row>
+    <row r="58" spans="1:6" s="94" customFormat="1" ht="16.5">
+      <c r="A58" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="166"/>
-      <c r="F58" s="167"/>
-    </row>
-    <row r="59" spans="1:6" s="171" customFormat="1" ht="16.5">
-      <c r="A59" s="169"/>
-      <c r="B59" s="170" t="s">
+      <c r="B58" s="151"/>
+      <c r="C58" s="151"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="93"/>
+    </row>
+    <row r="59" spans="1:6" s="96" customFormat="1" ht="16.5">
+      <c r="A59" s="95"/>
+      <c r="B59" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
-    </row>
-    <row r="60" spans="1:6" s="171" customFormat="1" ht="16.5">
-      <c r="A60" s="169"/>
-      <c r="B60" s="170" t="s">
+      <c r="C59" s="144"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+    </row>
+    <row r="60" spans="1:6" s="96" customFormat="1" ht="16.5">
+      <c r="A60" s="95"/>
+      <c r="B60" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
-    </row>
-    <row r="61" spans="1:6" s="173" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A61" s="172"/>
-      <c r="B61" s="170" t="s">
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+    </row>
+    <row r="61" spans="1:6" s="98" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A61" s="97"/>
+      <c r="B61" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
-    </row>
-    <row r="62" spans="1:6" s="175" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A62" s="174"/>
-      <c r="B62" s="170" t="s">
+      <c r="C61" s="144"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
+    </row>
+    <row r="62" spans="1:6" s="100" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A62" s="99"/>
+      <c r="B62" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="170"/>
-      <c r="F62" s="170"/>
-    </row>
-    <row r="63" spans="1:6" s="175" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A63" s="174"/>
-      <c r="B63" s="170" t="s">
+      <c r="C62" s="144"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
+    </row>
+    <row r="63" spans="1:6" s="100" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A63" s="99"/>
+      <c r="B63" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="170"/>
-      <c r="F63" s="170"/>
-    </row>
-    <row r="64" spans="1:6" s="175" customFormat="1" ht="16.5">
-      <c r="A64" s="174"/>
-      <c r="B64" s="172" t="s">
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+    </row>
+    <row r="64" spans="1:6" s="100" customFormat="1" ht="16.5">
+      <c r="A64" s="99"/>
+      <c r="B64" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="172"/>
-      <c r="D64" s="176"/>
-      <c r="E64" s="177"/>
-      <c r="F64" s="178"/>
-    </row>
-    <row r="65" spans="1:6" s="175" customFormat="1" ht="16.5">
-      <c r="A65" s="174"/>
-      <c r="B65" s="172" t="s">
+      <c r="C64" s="97"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="103"/>
+    </row>
+    <row r="65" spans="1:6" s="100" customFormat="1" ht="16.5">
+      <c r="A65" s="99"/>
+      <c r="B65" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="172"/>
-      <c r="D65" s="176"/>
-      <c r="E65" s="177"/>
-      <c r="F65" s="178"/>
-    </row>
-    <row r="66" spans="1:6" s="183" customFormat="1" ht="16.5">
-      <c r="A66" s="179" t="s">
+      <c r="C65" s="97"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="103"/>
+    </row>
+    <row r="66" spans="1:6" s="108" customFormat="1" ht="16.5">
+      <c r="A66" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="180"/>
-      <c r="C66" s="181"/>
-      <c r="D66" s="181"/>
-      <c r="E66" s="182"/>
-      <c r="F66" s="180"/>
-    </row>
-    <row r="67" spans="1:6" s="175" customFormat="1" ht="16.5">
-      <c r="A67" s="174"/>
-      <c r="B67" s="172" t="s">
+      <c r="B66" s="105"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="105"/>
+    </row>
+    <row r="67" spans="1:6" s="100" customFormat="1" ht="16.5">
+      <c r="A67" s="99"/>
+      <c r="B67" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="178"/>
-      <c r="D67" s="176"/>
-      <c r="E67" s="184"/>
-      <c r="F67" s="178"/>
-    </row>
-    <row r="68" spans="1:6" s="175" customFormat="1" ht="16.5">
-      <c r="A68" s="174"/>
-      <c r="B68" s="172" t="s">
+      <c r="C67" s="103"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="103"/>
+    </row>
+    <row r="68" spans="1:6" s="100" customFormat="1" ht="16.5">
+      <c r="A68" s="99"/>
+      <c r="B68" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="178"/>
-      <c r="D68" s="176"/>
-      <c r="E68" s="184"/>
-      <c r="F68" s="178"/>
-    </row>
-    <row r="69" spans="1:6" s="175" customFormat="1" ht="16.5">
-      <c r="A69" s="174"/>
-      <c r="B69" s="172" t="s">
+      <c r="C68" s="103"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="103"/>
+    </row>
+    <row r="69" spans="1:6" s="100" customFormat="1" ht="16.5">
+      <c r="A69" s="99"/>
+      <c r="B69" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="178"/>
-      <c r="D69" s="176"/>
-      <c r="E69" s="184"/>
-      <c r="F69" s="178"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D1:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A10:G11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
     <mergeCell ref="B61:F61"/>
     <mergeCell ref="B62:F62"/>
     <mergeCell ref="B63:F63"/>
@@ -3378,27 +3396,6 @@
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="D1:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A10:G11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.27559055118110237" top="0.51181102362204722" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3430,40 +3427,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
@@ -3471,531 +3468,531 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A7" s="196"/>
-      <c r="B7" s="197" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="206"/>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" ht="15.5">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="200" t="s">
+      <c r="B9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="200" t="s">
+      <c r="C9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="200" t="s">
+      <c r="E9" s="116" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" ht="31">
-      <c r="A10" s="228">
+      <c r="A10" s="199">
         <v>1</v>
       </c>
-      <c r="B10" s="228" t="s">
+      <c r="B10" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="201" t="s">
+      <c r="C10" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="229">
+      <c r="D10" s="200">
         <v>230000</v>
       </c>
-      <c r="E10" s="229">
+      <c r="E10" s="200">
         <v>230000</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A11" s="228"/>
-      <c r="B11" s="228"/>
-      <c r="C11" s="201" t="s">
+      <c r="A11" s="199"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="229"/>
-      <c r="E11" s="229"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
     </row>
     <row r="12" spans="1:5" s="7" customFormat="1" ht="31">
-      <c r="A12" s="228"/>
-      <c r="B12" s="228"/>
-      <c r="C12" s="201" t="s">
+      <c r="A12" s="199"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="200"/>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" ht="31">
-      <c r="A13" s="228"/>
-      <c r="B13" s="228"/>
-      <c r="C13" s="201" t="s">
+      <c r="A13" s="199"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="200"/>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A14" s="228"/>
-      <c r="B14" s="228"/>
-      <c r="C14" s="201" t="s">
+      <c r="A14" s="199"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A15" s="228"/>
-      <c r="B15" s="228"/>
-      <c r="C15" s="201" t="s">
+      <c r="A15" s="199"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A16" s="228"/>
-      <c r="B16" s="228"/>
-      <c r="C16" s="201" t="s">
+      <c r="A16" s="199"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="229"/>
-      <c r="E16" s="229"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
     </row>
     <row r="17" spans="1:5" s="7" customFormat="1" ht="27" customHeight="1">
-      <c r="A17" s="202">
+      <c r="A17" s="118">
         <v>2</v>
       </c>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="201" t="s">
+      <c r="C17" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="203">
+      <c r="D17" s="119">
         <v>114000</v>
       </c>
-      <c r="E17" s="203">
+      <c r="E17" s="119">
         <f>D17</f>
         <v>114000</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="7" customFormat="1" ht="46.5">
-      <c r="A18" s="202">
+      <c r="A18" s="118">
         <v>3</v>
       </c>
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="201" t="s">
+      <c r="C18" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="203">
+      <c r="D18" s="119">
         <v>242000</v>
       </c>
-      <c r="E18" s="203">
+      <c r="E18" s="119">
         <f t="shared" ref="E18:E35" si="0">D18</f>
         <v>242000</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A19" s="202">
+      <c r="A19" s="118">
         <v>4</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="204" t="s">
+      <c r="C19" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="203">
+      <c r="D19" s="119">
         <v>242000</v>
       </c>
-      <c r="E19" s="203">
+      <c r="E19" s="119">
         <f t="shared" si="0"/>
         <v>242000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="102" customFormat="1" ht="31">
-      <c r="A20" s="202">
+    <row r="20" spans="1:5" s="57" customFormat="1" ht="31">
+      <c r="A20" s="118">
         <v>5</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="204" t="s">
+      <c r="C20" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="203">
+      <c r="D20" s="119">
         <v>140000</v>
       </c>
-      <c r="E20" s="203">
+      <c r="E20" s="119">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="102" customFormat="1" ht="31">
-      <c r="A21" s="202">
+    <row r="21" spans="1:5" s="57" customFormat="1" ht="31">
+      <c r="A21" s="118">
         <v>6</v>
       </c>
-      <c r="B21" s="204" t="s">
+      <c r="B21" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="204" t="s">
+      <c r="C21" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="203">
+      <c r="D21" s="119">
         <v>213000</v>
       </c>
-      <c r="E21" s="203">
+      <c r="E21" s="119">
         <f t="shared" si="0"/>
         <v>213000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A22" s="202">
+    <row r="22" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A22" s="118">
         <v>7</v>
       </c>
-      <c r="B22" s="204" t="s">
+      <c r="B22" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="204"/>
-      <c r="D22" s="205">
+      <c r="C22" s="120"/>
+      <c r="D22" s="121">
         <v>218000</v>
       </c>
-      <c r="E22" s="203">
+      <c r="E22" s="119">
         <f t="shared" si="0"/>
         <v>218000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="102" customFormat="1" ht="31">
-      <c r="A23" s="202">
+    <row r="23" spans="1:5" s="57" customFormat="1" ht="31">
+      <c r="A23" s="118">
         <v>8</v>
       </c>
-      <c r="B23" s="204" t="s">
+      <c r="B23" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="204" t="s">
+      <c r="C23" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="203">
+      <c r="D23" s="119">
         <v>70000</v>
       </c>
-      <c r="E23" s="203">
+      <c r="E23" s="119">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="102" customFormat="1" ht="46.5">
-      <c r="A24" s="202">
+    <row r="24" spans="1:5" s="57" customFormat="1" ht="46.5">
+      <c r="A24" s="118">
         <v>9</v>
       </c>
-      <c r="B24" s="204" t="s">
+      <c r="B24" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="204" t="s">
+      <c r="C24" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="205">
+      <c r="D24" s="121">
         <v>50000</v>
       </c>
-      <c r="E24" s="203">
+      <c r="E24" s="119">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A25" s="202">
+    <row r="25" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A25" s="118">
         <v>10</v>
       </c>
-      <c r="B25" s="204" t="s">
+      <c r="B25" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="204" t="s">
+      <c r="C25" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="205">
+      <c r="D25" s="121">
         <v>65000</v>
       </c>
-      <c r="E25" s="203">
+      <c r="E25" s="119">
         <f t="shared" si="0"/>
         <v>65000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A26" s="202">
+    <row r="26" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A26" s="118">
         <v>11</v>
       </c>
-      <c r="B26" s="204" t="s">
+      <c r="B26" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="204" t="s">
+      <c r="C26" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="203">
+      <c r="D26" s="119">
         <v>145000</v>
       </c>
-      <c r="E26" s="203">
+      <c r="E26" s="119">
         <f>D26</f>
         <v>145000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A27" s="202">
+    <row r="27" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A27" s="118">
         <v>12</v>
       </c>
-      <c r="B27" s="206" t="s">
+      <c r="B27" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="230" t="s">
+      <c r="C27" s="142" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="216">
+      <c r="D27" s="132">
         <v>50000</v>
       </c>
-      <c r="E27" s="203">
+      <c r="E27" s="119">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A28" s="202">
+    <row r="28" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A28" s="118">
         <v>14</v>
       </c>
-      <c r="B28" s="204" t="s">
+      <c r="B28" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="207" t="s">
+      <c r="C28" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="203">
+      <c r="D28" s="119">
         <v>37000</v>
       </c>
-      <c r="E28" s="203">
+      <c r="E28" s="119">
         <f t="shared" si="0"/>
         <v>37000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A29" s="202">
+    <row r="29" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A29" s="118">
         <v>15</v>
       </c>
-      <c r="B29" s="206" t="s">
+      <c r="B29" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="206" t="s">
+      <c r="C29" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="208">
+      <c r="D29" s="124">
         <v>40000</v>
       </c>
-      <c r="E29" s="203">
+      <c r="E29" s="119">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A30" s="202">
+    <row r="30" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A30" s="118">
         <v>16</v>
       </c>
-      <c r="B30" s="204" t="s">
+      <c r="B30" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="207" t="s">
+      <c r="C30" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="203">
+      <c r="D30" s="119">
         <v>35000</v>
       </c>
-      <c r="E30" s="203">
+      <c r="E30" s="119">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A31" s="202">
+    <row r="31" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A31" s="118">
         <v>17</v>
       </c>
-      <c r="B31" s="206" t="s">
+      <c r="B31" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="207" t="s">
+      <c r="C31" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="208">
+      <c r="D31" s="124">
         <v>50000</v>
       </c>
-      <c r="E31" s="203">
+      <c r="E31" s="119">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A32" s="202">
+    <row r="32" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A32" s="118">
         <v>18</v>
       </c>
-      <c r="B32" s="209" t="s">
+      <c r="B32" s="125" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="210" t="s">
+      <c r="C32" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="211">
+      <c r="D32" s="127">
         <v>55000</v>
       </c>
-      <c r="E32" s="203">
+      <c r="E32" s="119">
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A33" s="202">
+    <row r="33" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A33" s="118">
         <v>19</v>
       </c>
-      <c r="B33" s="209" t="s">
+      <c r="B33" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="231" t="s">
+      <c r="C33" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="212">
+      <c r="D33" s="128">
         <v>150000</v>
       </c>
-      <c r="E33" s="203">
+      <c r="E33" s="119">
         <f>D33</f>
         <v>150000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A34" s="202">
+    <row r="34" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A34" s="118">
         <v>20</v>
       </c>
-      <c r="B34" s="209" t="s">
+      <c r="B34" s="125" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="231"/>
-      <c r="D34" s="212">
+      <c r="C34" s="191"/>
+      <c r="D34" s="128">
         <v>150000</v>
       </c>
-      <c r="E34" s="203">
+      <c r="E34" s="119">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="159" customFormat="1" ht="15.5">
-      <c r="A35" s="202">
+    <row r="35" spans="1:5" s="88" customFormat="1" ht="15.5">
+      <c r="A35" s="118">
         <v>21</v>
       </c>
-      <c r="B35" s="209" t="s">
+      <c r="B35" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="209" t="s">
+      <c r="C35" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="212">
+      <c r="D35" s="128">
         <v>250000</v>
       </c>
-      <c r="E35" s="203">
+      <c r="E35" s="119">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="102" customFormat="1" ht="17">
-      <c r="A36" s="202">
+    <row r="36" spans="1:5" s="57" customFormat="1" ht="17">
+      <c r="A36" s="118">
         <v>22</v>
       </c>
-      <c r="B36" s="209" t="s">
+      <c r="B36" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="204" t="s">
+      <c r="C36" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="213"/>
-      <c r="E36" s="214" t="s">
+      <c r="D36" s="129"/>
+      <c r="E36" s="130" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="102" customFormat="1" ht="31">
-      <c r="A37" s="202">
+    <row r="37" spans="1:5" s="57" customFormat="1" ht="31">
+      <c r="A37" s="118">
         <v>23</v>
       </c>
-      <c r="B37" s="209" t="s">
+      <c r="B37" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="204" t="s">
+      <c r="C37" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="213"/>
-      <c r="E37" s="214" t="s">
+      <c r="D37" s="129"/>
+      <c r="E37" s="130" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="102" customFormat="1" ht="17">
-      <c r="A38" s="202">
+    <row r="38" spans="1:5" s="57" customFormat="1" ht="17">
+      <c r="A38" s="118">
         <v>24</v>
       </c>
-      <c r="B38" s="209" t="s">
+      <c r="B38" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="209" t="s">
+      <c r="C38" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="213"/>
-      <c r="E38" s="214">
+      <c r="D38" s="129"/>
+      <c r="E38" s="130">
         <v>250000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="102" customFormat="1" ht="15.5">
-      <c r="A39" s="202">
+    <row r="39" spans="1:5" s="57" customFormat="1" ht="15.5">
+      <c r="A39" s="118">
         <v>25</v>
       </c>
-      <c r="B39" s="215" t="s">
+      <c r="B39" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="209" t="s">
+      <c r="C39" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="211">
+      <c r="D39" s="127">
         <v>30000</v>
       </c>
-      <c r="E39" s="211">
+      <c r="E39" s="127">
         <v>30000</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A40" s="232" t="s">
+      <c r="A40" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="232"/>
-      <c r="C40" s="232"/>
-      <c r="D40" s="233">
+      <c r="B40" s="190"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="143">
         <f>SUM(D10:D39)</f>
         <v>2576000</v>
       </c>
-      <c r="E40" s="233">
+      <c r="E40" s="143">
         <f>SUM(E10:E39)</f>
         <v>2826000</v>
       </c>
@@ -4021,32 +4018,32 @@
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="15.5">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="63"/>
+      <c r="B44" s="202"/>
       <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:5" s="10" customFormat="1" ht="15.5">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="66"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="205"/>
     </row>
     <row r="46" spans="1:5" s="10" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="204"/>
+      <c r="C46" s="205"/>
     </row>
     <row r="47" spans="1:5" s="10" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
+      <c r="B47" s="193"/>
+      <c r="C47" s="194"/>
     </row>
     <row r="48" spans="1:5" s="6" customFormat="1" ht="16.5">
       <c r="A48" s="8"/>
@@ -4070,9 +4067,9 @@
       <c r="E50" s="12"/>
     </row>
     <row r="55" spans="1:5" s="5" customFormat="1" ht="15.5">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
+      <c r="A55" s="195"/>
+      <c r="B55" s="196"/>
+      <c r="C55" s="196"/>
     </row>
     <row r="56" spans="1:5" s="5" customFormat="1" ht="15.5"/>
     <row r="57" spans="1:5" s="5" customFormat="1" ht="15.5"/>
@@ -4110,6 +4107,12 @@
     <row r="89" s="5" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="A47:C47"/>
@@ -4122,12 +4125,6 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.31496062992125984" top="0.51181102362204722" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4137,10 +4134,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4B47C1-996F-4F19-A70A-25FB3DB67440}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14"/>
@@ -4154,37 +4154,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="16">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" s="15" customFormat="1" ht="16">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="15" customFormat="1" ht="16">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="A4" s="210"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="16">
@@ -4196,31 +4196,31 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="212" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="215" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="216"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" s="23" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="216" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -4233,10 +4233,10 @@
         <v>58</v>
       </c>
       <c r="C9" s="217"/>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="218"/>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="217"/>
@@ -4250,50 +4250,50 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" s="42">
+      <c r="A11" s="226">
         <v>1</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="227" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="229">
         <v>200000</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="229">
         <f>D11</f>
         <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="A12" s="226"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
+      <c r="A13" s="226"/>
+      <c r="B13" s="227"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
+      <c r="A14" s="226"/>
+      <c r="B14" s="227"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="A15" s="226"/>
+      <c r="B15" s="227"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="30">
@@ -4342,7 +4342,7 @@
       <c r="C18" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="226"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="32">
         <v>220000</v>
       </c>
@@ -4458,11 +4458,11 @@
       </c>
       <c r="F24" s="33"/>
     </row>
-    <row r="25" spans="1:6" s="102" customFormat="1" ht="15.5">
+    <row r="25" spans="1:6" s="57" customFormat="1" ht="15.5">
       <c r="A25" s="27">
         <v>11</v>
       </c>
-      <c r="B25" s="218" t="s">
+      <c r="B25" s="133" t="s">
         <v>129</v>
       </c>
       <c r="C25" s="31" t="s">
@@ -4480,16 +4480,16 @@
       <c r="A26" s="30">
         <v>12</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="227" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="230">
         <v>60000</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="230">
         <f>D26</f>
         <v>60000</v>
       </c>
@@ -4499,22 +4499,22 @@
       <c r="A27" s="27">
         <v>13</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="227"/>
       <c r="C27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="D27" s="231"/>
+      <c r="E27" s="231"/>
       <c r="F27" s="33"/>
     </row>
-    <row r="28" spans="1:6" s="102" customFormat="1" ht="15.5">
+    <row r="28" spans="1:6" s="57" customFormat="1" ht="15.5">
       <c r="A28" s="30">
         <v>14</v>
       </c>
-      <c r="B28" s="218" t="s">
+      <c r="B28" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="219" t="s">
+      <c r="C28" s="134" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="32">
@@ -4525,14 +4525,14 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="102" customFormat="1" ht="15.5">
+    <row r="29" spans="1:6" s="57" customFormat="1" ht="15.5">
       <c r="A29" s="27">
         <v>15</v>
       </c>
-      <c r="B29" s="220" t="s">
+      <c r="B29" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="221" t="s">
+      <c r="C29" s="136" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="32">
@@ -4562,14 +4562,14 @@
       </c>
       <c r="F30" s="33"/>
     </row>
-    <row r="31" spans="1:6" s="102" customFormat="1" ht="15.5">
+    <row r="31" spans="1:6" s="57" customFormat="1" ht="15.5">
       <c r="A31" s="27">
         <v>17</v>
       </c>
-      <c r="B31" s="220" t="s">
+      <c r="B31" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="219" t="s">
+      <c r="C31" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="32">
@@ -4580,14 +4580,14 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="102" customFormat="1" ht="15.5">
+    <row r="32" spans="1:6" s="57" customFormat="1" ht="15.5">
       <c r="A32" s="30">
         <v>18</v>
       </c>
-      <c r="B32" s="222" t="s">
+      <c r="B32" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="223" t="s">
+      <c r="C32" s="138" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="32">
@@ -4598,14 +4598,14 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="102" customFormat="1" ht="15.5">
+    <row r="33" spans="1:6" s="57" customFormat="1" ht="15.5">
       <c r="A33" s="27">
         <v>19</v>
       </c>
-      <c r="B33" s="222" t="s">
+      <c r="B33" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="227" t="s">
+      <c r="C33" s="232" t="s">
         <v>108</v>
       </c>
       <c r="D33" s="32">
@@ -4616,14 +4616,14 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="102" customFormat="1" ht="15.5">
+    <row r="34" spans="1:6" s="57" customFormat="1" ht="15.5">
       <c r="A34" s="30">
         <v>20</v>
       </c>
-      <c r="B34" s="222" t="s">
+      <c r="B34" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="227"/>
+      <c r="C34" s="232"/>
       <c r="D34" s="32">
         <v>140000</v>
       </c>
@@ -4632,11 +4632,11 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="159" customFormat="1" ht="30">
+    <row r="35" spans="1:6" s="88" customFormat="1" ht="30">
       <c r="A35" s="27">
         <v>21</v>
       </c>
-      <c r="B35" s="222" t="s">
+      <c r="B35" s="137" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="29" t="s">
@@ -4650,56 +4650,56 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="102" customFormat="1" ht="16">
+    <row r="36" spans="1:6" s="57" customFormat="1" ht="16">
       <c r="A36" s="30">
         <v>22</v>
       </c>
-      <c r="B36" s="222" t="s">
+      <c r="B36" s="137" t="s">
         <v>139</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="226"/>
-      <c r="E36" s="224" t="s">
+      <c r="D36" s="141"/>
+      <c r="E36" s="139" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="102" customFormat="1" ht="16">
+    <row r="37" spans="1:6" s="57" customFormat="1" ht="16">
       <c r="A37" s="27">
         <v>23</v>
       </c>
-      <c r="B37" s="222" t="s">
+      <c r="B37" s="137" t="s">
         <v>140</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="226"/>
-      <c r="E37" s="224" t="s">
+      <c r="D37" s="141"/>
+      <c r="E37" s="139" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="102" customFormat="1" ht="16">
+    <row r="38" spans="1:6" s="57" customFormat="1" ht="16">
       <c r="A38" s="30">
         <v>24</v>
       </c>
-      <c r="B38" s="222" t="s">
+      <c r="B38" s="137" t="s">
         <v>141</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="226"/>
-      <c r="E38" s="224">
+      <c r="D38" s="141"/>
+      <c r="E38" s="139">
         <v>250000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="102" customFormat="1" ht="15.5">
+    <row r="39" spans="1:6" s="57" customFormat="1" ht="15.5">
       <c r="A39" s="27">
         <v>25</v>
       </c>
-      <c r="B39" s="225" t="s">
+      <c r="B39" s="140" t="s">
         <v>142</v>
       </c>
       <c r="C39" s="29" t="s">
@@ -4713,11 +4713,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="219" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
+      <c r="B40" s="219"/>
+      <c r="C40" s="219"/>
       <c r="D40" s="34">
         <f>SUM(D11:D39)</f>
         <v>2282000</v>
@@ -4728,34 +4728,27 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="16">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="222"/>
     </row>
     <row r="43" spans="1:6" ht="16">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
+      <c r="B43" s="224"/>
+      <c r="C43" s="224"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:F43"/>
@@ -4768,9 +4761,16 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.28999999999999998" top="0.28999999999999998" bottom="0.12" header="0.3" footer="0.15"/>
-  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/BÁO GIÁ CẠNH TRANH ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG 2025.xlsx
+++ b/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/BÁO GIÁ CẠNH TRANH ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04984C6F-23D0-4A6B-89CF-FC91C9C24F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A503B1D8-25C7-436B-9E77-136D22ADB7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TN" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Hoà Khánh'!$A$1:$E$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TN!$A$1:$G$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TN!$A$1:$G$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Thiện Phước'!$A$1:$E$48</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Thiện Phước'!$9:$9</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="160">
   <si>
     <t xml:space="preserve">CÔNG TY CỔ PHẦN BỆNH VIỆN THIỆN NHÂN ĐÀ NẴNG 
 Số 276-278-280 Đống Đa - P Thanh Bình -Thành Phố Đà Nẵng 
@@ -417,9 +417,6 @@
   </si>
   <si>
     <t>Kính gửi: ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG</t>
-  </si>
-  <si>
-    <t>NGƯỜI LẬP</t>
   </si>
   <si>
     <t>Kính gửi: Đảng Uỷ Uỷ Ban Nhân Dân Thành Phố Đà Nẵng</t>
@@ -584,6 +581,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Đà Nẵng, ngày……. Tháng…….. Năm 2025</t>
+  </si>
+  <si>
+    <t>Đà nẵng, Ngày … tháng 05 năm 2025</t>
+  </si>
+  <si>
+    <t>ĐẠI DIỆN TRƯỞNG CƠ QUAN</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1270,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1670,6 +1673,123 @@
     <xf numFmtId="166" fontId="46" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="5" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="5" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="7" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1685,128 +1805,23 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="7" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="5" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="5" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1856,17 +1871,47 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1895,47 +1940,17 @@
     <xf numFmtId="3" fontId="25" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2454,10 +2469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A39" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5"/>
@@ -2478,48 +2493,48 @@
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="35"/>
-      <c r="D1" s="172" t="s">
+      <c r="D1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
     </row>
     <row r="2" spans="1:12" s="40" customFormat="1" ht="16.5">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
     </row>
     <row r="3" spans="1:12" s="40" customFormat="1" ht="16.5">
       <c r="A3" s="38"/>
       <c r="B3" s="39"/>
       <c r="C3" s="38"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:12" s="40" customFormat="1" ht="16.5">
       <c r="A4" s="38"/>
       <c r="B4" s="39"/>
       <c r="C4" s="38"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
     </row>
     <row r="5" spans="1:12" s="40" customFormat="1" ht="16.5">
       <c r="A5" s="38"/>
       <c r="B5" s="39"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
     </row>
     <row r="6" spans="1:12" s="40" customFormat="1" ht="16.5">
       <c r="A6" s="41"/>
@@ -2531,15 +2546,15 @@
       <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:12" s="40" customFormat="1" ht="25">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
@@ -2562,29 +2577,29 @@
     </row>
     <row r="9" spans="1:12" s="40" customFormat="1" ht="16.5">
       <c r="A9" s="49"/>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:12" s="40" customFormat="1">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="177"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="178"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
@@ -2592,13 +2607,13 @@
       <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" s="40" customFormat="1">
-      <c r="A11" s="179"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="181"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
@@ -2620,30 +2635,30 @@
       <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="16.5">
-      <c r="A13" s="182" t="s">
+      <c r="A13" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="182" t="s">
+      <c r="C13" s="157"/>
+      <c r="D13" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="188" t="s">
+      <c r="E13" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="189"/>
+      <c r="F13" s="161"/>
       <c r="G13" s="55" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
-      <c r="A14" s="183"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="183"/>
+      <c r="A14" s="155"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="155"/>
       <c r="E14" s="58" t="s">
         <v>73</v>
       </c>
@@ -2654,92 +2669,92 @@
       <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:12" ht="49.5">
-      <c r="A15" s="160">
+      <c r="A15" s="165">
         <v>1</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="171" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="166">
+      <c r="E15" s="174">
         <v>130000</v>
       </c>
-      <c r="F15" s="166">
+      <c r="F15" s="174">
         <v>130000</v>
       </c>
-      <c r="G15" s="169"/>
+      <c r="G15" s="177"/>
       <c r="H15" s="61"/>
     </row>
     <row r="16" spans="1:12" ht="49.5">
-      <c r="A16" s="161"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="164"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="172"/>
       <c r="D16" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="170"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="178"/>
       <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8" ht="33">
-      <c r="A17" s="161"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="164"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="172"/>
       <c r="D17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="170"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="178"/>
       <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8" ht="33">
-      <c r="A18" s="161"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="164"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="172"/>
       <c r="D18" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="170"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="178"/>
       <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8" ht="33">
-      <c r="A19" s="161"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="164"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="172"/>
       <c r="D19" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="170"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="178"/>
       <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="16.5">
-      <c r="A20" s="162"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="165"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="173"/>
       <c r="D20" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="171"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="179"/>
       <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="63">
         <v>2</v>
       </c>
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="168" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="64" t="s">
@@ -2761,7 +2776,7 @@
       <c r="A22" s="63">
         <v>3</v>
       </c>
-      <c r="B22" s="153"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="60" t="s">
         <v>87</v>
       </c>
@@ -2781,7 +2796,7 @@
       <c r="A23" s="63">
         <v>4</v>
       </c>
-      <c r="B23" s="153"/>
+      <c r="B23" s="169"/>
       <c r="C23" s="60" t="s">
         <v>88</v>
       </c>
@@ -2799,7 +2814,7 @@
       <c r="A24" s="63">
         <v>5</v>
       </c>
-      <c r="B24" s="153"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="60" t="s">
         <v>89</v>
       </c>
@@ -2819,7 +2834,7 @@
       <c r="A25" s="63">
         <v>6</v>
       </c>
-      <c r="B25" s="153"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="60" t="s">
         <v>90</v>
       </c>
@@ -2839,7 +2854,7 @@
       <c r="A26" s="63">
         <v>7</v>
       </c>
-      <c r="B26" s="153"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="60" t="s">
         <v>92</v>
       </c>
@@ -2857,7 +2872,7 @@
       <c r="A27" s="63">
         <v>8</v>
       </c>
-      <c r="B27" s="154"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="60" t="s">
         <v>93</v>
       </c>
@@ -2941,7 +2956,7 @@
       <c r="A31" s="63">
         <v>12</v>
       </c>
-      <c r="B31" s="149" t="s">
+      <c r="B31" s="180" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="72" t="s">
@@ -2950,13 +2965,13 @@
       <c r="D31" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="155">
+      <c r="E31" s="181">
         <v>50000</v>
       </c>
-      <c r="F31" s="155">
+      <c r="F31" s="181">
         <v>50000</v>
       </c>
-      <c r="G31" s="156" t="s">
+      <c r="G31" s="182" t="s">
         <v>99</v>
       </c>
       <c r="H31" s="62"/>
@@ -2965,16 +2980,16 @@
       <c r="A32" s="63">
         <v>13</v>
       </c>
-      <c r="B32" s="149"/>
+      <c r="B32" s="180"/>
       <c r="C32" s="72" t="s">
         <v>100</v>
       </c>
       <c r="D32" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="157"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" ht="33">
@@ -3047,7 +3062,7 @@
       <c r="A36" s="63">
         <v>18</v>
       </c>
-      <c r="B36" s="158"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="72" t="s">
         <v>47</v>
       </c>
@@ -3060,14 +3075,14 @@
       <c r="F36" s="75">
         <v>50000</v>
       </c>
-      <c r="G36" s="159"/>
+      <c r="G36" s="163"/>
       <c r="H36" s="62"/>
     </row>
     <row r="37" spans="1:8" ht="33">
       <c r="A37" s="63">
         <v>19</v>
       </c>
-      <c r="B37" s="158"/>
+      <c r="B37" s="162"/>
       <c r="C37" s="77" t="s">
         <v>46</v>
       </c>
@@ -3080,14 +3095,14 @@
       <c r="F37" s="75">
         <v>35000</v>
       </c>
-      <c r="G37" s="157"/>
+      <c r="G37" s="164"/>
       <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" ht="33">
       <c r="A38" s="63">
         <v>20</v>
       </c>
-      <c r="B38" s="147" t="s">
+      <c r="B38" s="186" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="80" t="s">
@@ -3109,7 +3124,7 @@
       <c r="A39" s="63">
         <v>21</v>
       </c>
-      <c r="B39" s="148"/>
+      <c r="B39" s="187"/>
       <c r="C39" s="80" t="s">
         <v>109</v>
       </c>
@@ -3147,7 +3162,7 @@
       <c r="A41" s="63">
         <v>23</v>
       </c>
-      <c r="B41" s="149" t="s">
+      <c r="B41" s="180" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="77" t="s">
@@ -3167,7 +3182,7 @@
       <c r="A42" s="63">
         <v>24</v>
       </c>
-      <c r="B42" s="149"/>
+      <c r="B42" s="180"/>
       <c r="C42" s="77" t="s">
         <v>114</v>
       </c>
@@ -3185,7 +3200,7 @@
       <c r="A43" s="63">
         <v>25</v>
       </c>
-      <c r="B43" s="149"/>
+      <c r="B43" s="180"/>
       <c r="C43" s="77" t="s">
         <v>50</v>
       </c>
@@ -3211,21 +3226,21 @@
         <v>13</v>
       </c>
       <c r="E44" s="79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F44" s="79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="62"/>
     </row>
     <row r="45" spans="1:8" ht="16.5">
-      <c r="A45" s="150" t="s">
+      <c r="A45" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="150"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
+      <c r="B45" s="188"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
       <c r="E45" s="90">
         <f>SUM(E15:E44)</f>
         <v>1944000</v>
@@ -3237,142 +3252,154 @@
       <c r="G45" s="91"/>
       <c r="H45" s="62"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="E47" s="145" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="146"/>
-    </row>
-    <row r="58" spans="1:6" s="94" customFormat="1" ht="16.5">
-      <c r="A58" s="151" t="s">
+    <row r="48" spans="1:8">
+      <c r="E48" s="233" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="234"/>
+      <c r="G48" s="235"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="E49" s="184" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="236"/>
+      <c r="G49" s="185"/>
+    </row>
+    <row r="59" spans="1:7" ht="32" customHeight="1"/>
+    <row r="64" spans="1:7" s="94" customFormat="1" ht="16.5">
+      <c r="A64" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="151"/>
-      <c r="C58" s="151"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="93"/>
-    </row>
-    <row r="59" spans="1:6" s="96" customFormat="1" ht="16.5">
-      <c r="A59" s="95"/>
-      <c r="B59" s="144" t="s">
+      <c r="B64" s="189"/>
+      <c r="C64" s="189"/>
+      <c r="D64" s="189"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="93"/>
+    </row>
+    <row r="65" spans="1:6" s="96" customFormat="1" ht="16.5">
+      <c r="A65" s="95"/>
+      <c r="B65" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="144"/>
-      <c r="D59" s="144"/>
-      <c r="E59" s="144"/>
-      <c r="F59" s="144"/>
-    </row>
-    <row r="60" spans="1:6" s="96" customFormat="1" ht="16.5">
-      <c r="A60" s="95"/>
-      <c r="B60" s="144" t="s">
+      <c r="C65" s="183"/>
+      <c r="D65" s="183"/>
+      <c r="E65" s="183"/>
+      <c r="F65" s="183"/>
+    </row>
+    <row r="66" spans="1:6" s="96" customFormat="1" ht="16.5">
+      <c r="A66" s="95"/>
+      <c r="B66" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-    </row>
-    <row r="61" spans="1:6" s="98" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A61" s="97"/>
-      <c r="B61" s="144" t="s">
+      <c r="C66" s="183"/>
+      <c r="D66" s="183"/>
+      <c r="E66" s="183"/>
+      <c r="F66" s="183"/>
+    </row>
+    <row r="67" spans="1:6" s="98" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A67" s="97"/>
+      <c r="B67" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="144"/>
-      <c r="D61" s="144"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="144"/>
-    </row>
-    <row r="62" spans="1:6" s="100" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A62" s="99"/>
-      <c r="B62" s="144" t="s">
+      <c r="C67" s="183"/>
+      <c r="D67" s="183"/>
+      <c r="E67" s="183"/>
+      <c r="F67" s="183"/>
+    </row>
+    <row r="68" spans="1:6" s="100" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A68" s="99"/>
+      <c r="B68" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="144"/>
-      <c r="D62" s="144"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="144"/>
-    </row>
-    <row r="63" spans="1:6" s="100" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A63" s="99"/>
-      <c r="B63" s="144" t="s">
+      <c r="C68" s="183"/>
+      <c r="D68" s="183"/>
+      <c r="E68" s="183"/>
+      <c r="F68" s="183"/>
+    </row>
+    <row r="69" spans="1:6" s="100" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A69" s="99"/>
+      <c r="B69" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-    </row>
-    <row r="64" spans="1:6" s="100" customFormat="1" ht="16.5">
-      <c r="A64" s="99"/>
-      <c r="B64" s="97" t="s">
+      <c r="C69" s="183"/>
+      <c r="D69" s="183"/>
+      <c r="E69" s="183"/>
+      <c r="F69" s="183"/>
+    </row>
+    <row r="70" spans="1:6" s="100" customFormat="1" ht="16.5">
+      <c r="A70" s="99"/>
+      <c r="B70" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="97"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="103"/>
-    </row>
-    <row r="65" spans="1:6" s="100" customFormat="1" ht="16.5">
-      <c r="A65" s="99"/>
-      <c r="B65" s="97" t="s">
+      <c r="C70" s="97"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="103"/>
+    </row>
+    <row r="71" spans="1:6" s="100" customFormat="1" ht="16.5">
+      <c r="A71" s="99"/>
+      <c r="B71" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="97"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="103"/>
-    </row>
-    <row r="66" spans="1:6" s="108" customFormat="1" ht="16.5">
-      <c r="A66" s="104" t="s">
+      <c r="C71" s="97"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="103"/>
+    </row>
+    <row r="72" spans="1:6" s="108" customFormat="1" ht="16.5">
+      <c r="A72" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="105"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="105"/>
-    </row>
-    <row r="67" spans="1:6" s="100" customFormat="1" ht="16.5">
-      <c r="A67" s="99"/>
-      <c r="B67" s="97" t="s">
+      <c r="B72" s="105"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="105"/>
+    </row>
+    <row r="73" spans="1:6" s="100" customFormat="1" ht="16.5">
+      <c r="A73" s="99"/>
+      <c r="B73" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="103"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="103"/>
-    </row>
-    <row r="68" spans="1:6" s="100" customFormat="1" ht="16.5">
-      <c r="A68" s="99"/>
-      <c r="B68" s="97" t="s">
+      <c r="C73" s="103"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="103"/>
+    </row>
+    <row r="74" spans="1:6" s="100" customFormat="1" ht="16.5">
+      <c r="A74" s="99"/>
+      <c r="B74" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="103"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="103"/>
-    </row>
-    <row r="69" spans="1:6" s="100" customFormat="1" ht="16.5">
-      <c r="A69" s="99"/>
-      <c r="B69" s="97" t="s">
+      <c r="C74" s="103"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="103"/>
+    </row>
+    <row r="75" spans="1:6" s="100" customFormat="1" ht="16.5">
+      <c r="A75" s="99"/>
+      <c r="B75" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="103"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="103"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D1:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A10:G11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
+  <mergeCells count="32">
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="A15:A20"/>
@@ -3386,16 +3413,14 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="D1:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A10:G11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.27559055118110237" top="0.51181102362204722" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3413,8 +3438,8 @@
   </sheetPr>
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.83203125" defaultRowHeight="14"/>
@@ -3427,40 +3452,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
@@ -3468,31 +3493,31 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="115"/>
-      <c r="B7" s="206" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
+      <c r="B7" s="190" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" ht="15.5">
       <c r="A9" s="116" t="s">
@@ -3505,82 +3530,82 @@
         <v>5</v>
       </c>
       <c r="D9" s="116" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="116" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" ht="31">
-      <c r="A10" s="199">
+      <c r="A10" s="203">
         <v>1</v>
       </c>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="203" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="204">
         <v>230000</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="204">
         <v>230000</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A11" s="199"/>
-      <c r="B11" s="199"/>
+      <c r="A11" s="203"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
     </row>
     <row r="12" spans="1:5" s="7" customFormat="1" ht="31">
-      <c r="A12" s="199"/>
-      <c r="B12" s="199"/>
+      <c r="A12" s="203"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204"/>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" ht="31">
-      <c r="A13" s="199"/>
-      <c r="B13" s="199"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A14" s="199"/>
-      <c r="B14" s="199"/>
+      <c r="A14" s="203"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204"/>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A15" s="199"/>
-      <c r="B15" s="199"/>
+      <c r="A15" s="203"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A16" s="199"/>
-      <c r="B16" s="199"/>
+      <c r="A16" s="203"/>
+      <c r="B16" s="203"/>
       <c r="C16" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
     </row>
     <row r="17" spans="1:5" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A17" s="118">
@@ -3605,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="117" t="s">
         <v>20</v>
@@ -3623,7 +3648,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="120" t="s">
         <v>23</v>
@@ -3641,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="120" t="s">
         <v>22</v>
@@ -3659,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="120" t="s">
         <v>91</v>
@@ -3677,7 +3702,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="120"/>
       <c r="D22" s="121">
@@ -3693,7 +3718,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="120" t="s">
         <v>21</v>
@@ -3711,7 +3736,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="120" t="s">
         <v>15</v>
@@ -3729,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="121">
         <v>65000</v>
@@ -3747,10 +3772,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" s="119">
         <v>145000</v>
@@ -3765,10 +3790,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" s="132">
         <v>50000</v>
@@ -3783,10 +3808,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="119">
         <v>37000</v>
@@ -3801,7 +3826,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="122" t="s">
         <v>104</v>
@@ -3819,7 +3844,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="123" t="s">
         <v>16</v>
@@ -3837,7 +3862,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="123" t="s">
         <v>49</v>
@@ -3855,7 +3880,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="126" t="s">
         <v>48</v>
@@ -3873,9 +3898,9 @@
         <v>19</v>
       </c>
       <c r="B33" s="125" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="191" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="195" t="s">
         <v>108</v>
       </c>
       <c r="D33" s="128">
@@ -3891,9 +3916,9 @@
         <v>20</v>
       </c>
       <c r="B34" s="125" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="191"/>
+        <v>136</v>
+      </c>
+      <c r="C34" s="195"/>
       <c r="D34" s="128">
         <v>150000</v>
       </c>
@@ -3907,7 +3932,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="125" t="s">
         <v>52</v>
@@ -3925,7 +3950,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="120" t="s">
         <v>24</v>
@@ -3940,7 +3965,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="120" t="s">
         <v>115</v>
@@ -3955,7 +3980,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="125" t="s">
         <v>25</v>
@@ -3970,7 +3995,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="131" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="125" t="s">
         <v>13</v>
@@ -3983,11 +4008,11 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="15.5">
-      <c r="A40" s="190" t="s">
+      <c r="A40" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="190"/>
-      <c r="C40" s="190"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="194"/>
       <c r="D40" s="143">
         <f>SUM(D10:D39)</f>
         <v>2576000</v>
@@ -4018,32 +4043,32 @@
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="15.5">
-      <c r="A44" s="201" t="s">
+      <c r="A44" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="202"/>
+      <c r="B44" s="206"/>
       <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:5" s="10" customFormat="1" ht="15.5">
-      <c r="A45" s="203" t="s">
+      <c r="A45" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="204"/>
-      <c r="C45" s="205"/>
+      <c r="B45" s="208"/>
+      <c r="C45" s="209"/>
     </row>
     <row r="46" spans="1:5" s="10" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A46" s="203" t="s">
+      <c r="A46" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="204"/>
-      <c r="C46" s="205"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="209"/>
     </row>
     <row r="47" spans="1:5" s="10" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A47" s="192" t="s">
+      <c r="A47" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="193"/>
-      <c r="C47" s="194"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="198"/>
     </row>
     <row r="48" spans="1:5" s="6" customFormat="1" ht="16.5">
       <c r="A48" s="8"/>
@@ -4067,9 +4092,9 @@
       <c r="E50" s="12"/>
     </row>
     <row r="55" spans="1:5" s="5" customFormat="1" ht="15.5">
-      <c r="A55" s="195"/>
-      <c r="B55" s="196"/>
-      <c r="C55" s="196"/>
+      <c r="A55" s="199"/>
+      <c r="B55" s="200"/>
+      <c r="C55" s="200"/>
     </row>
     <row r="56" spans="1:5" s="5" customFormat="1" ht="15.5"/>
     <row r="57" spans="1:5" s="5" customFormat="1" ht="15.5"/>
@@ -4107,12 +4132,6 @@
     <row r="89" s="5" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="A47:C47"/>
@@ -4125,6 +4144,12 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.31496062992125984" top="0.51181102362204722" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4139,7 +4164,7 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -4154,37 +4179,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="16">
-      <c r="A2" s="210"/>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
+      <c r="A2" s="224"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" s="15" customFormat="1" ht="16">
-      <c r="A3" s="210"/>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="15" customFormat="1" ht="16">
-      <c r="A4" s="210"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
+      <c r="A4" s="224"/>
+      <c r="B4" s="225"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="16">
@@ -4196,52 +4221,52 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="212" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
+      <c r="A6" s="226" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" s="15" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="215" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="216"/>
-      <c r="C7" s="216"/>
+      <c r="A7" s="229" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="230"/>
+      <c r="C7" s="230"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" s="23" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="216" t="s">
+      <c r="A8" s="230" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="230"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="217" t="s">
+      <c r="A9" s="231" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="217" t="s">
+      <c r="B9" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="217"/>
-      <c r="D9" s="218" t="s">
+      <c r="C9" s="231"/>
+      <c r="D9" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="218"/>
+      <c r="E9" s="232"/>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="217"/>
-      <c r="B10" s="217"/>
-      <c r="C10" s="217"/>
+      <c r="A10" s="231"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="231"/>
       <c r="D10" s="24" t="s">
         <v>73</v>
       </c>
@@ -4250,50 +4275,50 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" s="226">
+      <c r="A11" s="217">
         <v>1</v>
       </c>
-      <c r="B11" s="227" t="s">
+      <c r="B11" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="229">
+      <c r="D11" s="220">
         <v>200000</v>
       </c>
-      <c r="E11" s="229">
+      <c r="E11" s="220">
         <f>D11</f>
         <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A12" s="226"/>
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="226"/>
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A14" s="226"/>
-      <c r="B14" s="227"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
+      <c r="A14" s="217"/>
+      <c r="B14" s="218"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="220"/>
+      <c r="E14" s="220"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="226"/>
-      <c r="B15" s="227"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="220"/>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="30">
@@ -4337,10 +4362,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>151</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>152</v>
       </c>
       <c r="D18" s="141"/>
       <c r="E18" s="32">
@@ -4352,10 +4377,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="32">
         <v>200000</v>
@@ -4370,10 +4395,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="32">
         <v>200000</v>
@@ -4388,10 +4413,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="32">
         <v>200000</v>
@@ -4406,10 +4431,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="32">
         <v>50000</v>
@@ -4463,10 +4488,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="32">
         <v>145000</v>
@@ -4480,16 +4505,16 @@
       <c r="A26" s="30">
         <v>12</v>
       </c>
-      <c r="B26" s="227" t="s">
+      <c r="B26" s="218" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="230">
+      <c r="D26" s="221">
         <v>60000</v>
       </c>
-      <c r="E26" s="230">
+      <c r="E26" s="221">
         <f>D26</f>
         <v>60000</v>
       </c>
@@ -4499,12 +4524,12 @@
       <c r="A27" s="27">
         <v>13</v>
       </c>
-      <c r="B27" s="227"/>
+      <c r="B27" s="218"/>
       <c r="C27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
+      <c r="D27" s="222"/>
+      <c r="E27" s="222"/>
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" s="57" customFormat="1" ht="15.5">
@@ -4512,10 +4537,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="32">
         <v>37000</v>
@@ -4530,7 +4555,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="136" t="s">
         <v>104</v>
@@ -4567,7 +4592,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="134" t="s">
         <v>49</v>
@@ -4585,7 +4610,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="138" t="s">
         <v>48</v>
@@ -4603,9 +4628,9 @@
         <v>19</v>
       </c>
       <c r="B33" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="232" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="223" t="s">
         <v>108</v>
       </c>
       <c r="D33" s="32">
@@ -4621,9 +4646,9 @@
         <v>20</v>
       </c>
       <c r="B34" s="137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="232"/>
+        <v>136</v>
+      </c>
+      <c r="C34" s="223"/>
       <c r="D34" s="32">
         <v>140000</v>
       </c>
@@ -4637,7 +4662,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>52</v>
@@ -4655,7 +4680,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>24</v>
@@ -4670,7 +4695,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>115</v>
@@ -4685,10 +4710,10 @@
         <v>24</v>
       </c>
       <c r="B38" s="137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="141"/>
       <c r="E38" s="139">
@@ -4700,7 +4725,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>13</v>
@@ -4713,11 +4738,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="219" t="s">
+      <c r="A40" s="210" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="219"/>
-      <c r="C40" s="219"/>
+      <c r="B40" s="210"/>
+      <c r="C40" s="210"/>
       <c r="D40" s="34">
         <f>SUM(D11:D39)</f>
         <v>2282000</v>
@@ -4728,27 +4753,34 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="16">
-      <c r="A42" s="220" t="s">
+      <c r="A42" s="211" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="221"/>
-      <c r="C42" s="221"/>
-      <c r="D42" s="221"/>
-      <c r="E42" s="221"/>
-      <c r="F42" s="222"/>
+      <c r="B42" s="212"/>
+      <c r="C42" s="212"/>
+      <c r="D42" s="212"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="213"/>
     </row>
     <row r="43" spans="1:6" ht="16">
-      <c r="A43" s="223" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" s="224"/>
-      <c r="C43" s="224"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="225"/>
+      <c r="A43" s="214" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="215"/>
+      <c r="C43" s="215"/>
+      <c r="D43" s="215"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:F43"/>
@@ -4761,13 +4793,6 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.28999999999999998" top="0.28999999999999998" bottom="0.12" header="0.3" footer="0.15"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
